--- a/data/congress/csv/2023FD.xlsx
+++ b/data/congress/csv/2023FD.xlsx
@@ -27962,7 +27962,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -28015,7 +28015,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -28068,7 +28068,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -28227,7 +28227,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -28443,7 +28443,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -28549,7 +28549,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
@@ -32100,7 +32100,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
@@ -32842,7 +32842,7 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
